--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Insl5-Rxfp3.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Insl5-Rxfp3.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="25">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,22 +76,19 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>Neutrophils</t>
+  </si>
+  <si>
+    <t>Insl5</t>
+  </si>
+  <si>
+    <t>Rxfp3</t>
+  </si>
+  <si>
+    <t>FAPs</t>
+  </si>
+  <si>
     <t>MuSCs</t>
-  </si>
-  <si>
-    <t>Insl5</t>
-  </si>
-  <si>
-    <t>Rxfp3</t>
-  </si>
-  <si>
-    <t>ECs</t>
-  </si>
-  <si>
-    <t>FAPs</t>
-  </si>
-  <si>
-    <t>Neutrophils</t>
   </si>
 </sst>
 </file>
@@ -449,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T5"/>
+  <dimension ref="A1:T3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -534,13 +531,13 @@
         <v>1</v>
       </c>
       <c r="F2">
-        <v>0.5</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>0.1238755</v>
+        <v>0.140313</v>
       </c>
       <c r="H2">
-        <v>0.247751</v>
+        <v>0.420939</v>
       </c>
       <c r="I2">
         <v>1</v>
@@ -549,34 +546,34 @@
         <v>1</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>0.119231</v>
+        <v>0.03121766666666667</v>
       </c>
       <c r="N2">
-        <v>0.238462</v>
+        <v>0.093653</v>
       </c>
       <c r="O2">
-        <v>0.2028026663657924</v>
+        <v>0.1491714995197676</v>
       </c>
       <c r="P2">
-        <v>0.1905298372528011</v>
+        <v>0.2082265182928863</v>
       </c>
       <c r="Q2">
-        <v>0.0147697997405</v>
+        <v>0.004380244463</v>
       </c>
       <c r="R2">
-        <v>0.059079198962</v>
+        <v>0.039422200167</v>
       </c>
       <c r="S2">
-        <v>0.2028026663657924</v>
+        <v>0.1491714995197676</v>
       </c>
       <c r="T2">
-        <v>0.1905298372528011</v>
+        <v>0.2082265182928863</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,13 +593,13 @@
         <v>1</v>
       </c>
       <c r="F3">
-        <v>0.5</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>0.1238755</v>
+        <v>0.140313</v>
       </c>
       <c r="H3">
-        <v>0.247751</v>
+        <v>0.420939</v>
       </c>
       <c r="I3">
         <v>1</v>
@@ -611,158 +608,34 @@
         <v>1</v>
       </c>
       <c r="K3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.03121766666666667</v>
+        <v>0.178056</v>
       </c>
       <c r="N3">
-        <v>0.093653</v>
+        <v>0.356112</v>
       </c>
       <c r="O3">
-        <v>0.05309882528636444</v>
+        <v>0.8508285004802324</v>
       </c>
       <c r="P3">
-        <v>0.07482823614763182</v>
+        <v>0.7917734817071137</v>
       </c>
       <c r="Q3">
-        <v>0.003867104067166667</v>
+        <v>0.024983571528</v>
       </c>
       <c r="R3">
-        <v>0.023202624403</v>
+        <v>0.149901429168</v>
       </c>
       <c r="S3">
-        <v>0.05309882528636444</v>
+        <v>0.8508285004802324</v>
       </c>
       <c r="T3">
-        <v>0.07482823614763182</v>
-      </c>
-    </row>
-    <row r="4" spans="1:20">
-      <c r="A4" t="s">
-        <v>20</v>
-      </c>
-      <c r="B4" t="s">
-        <v>21</v>
-      </c>
-      <c r="C4" t="s">
-        <v>22</v>
-      </c>
-      <c r="D4" t="s">
-        <v>20</v>
-      </c>
-      <c r="E4">
-        <v>1</v>
-      </c>
-      <c r="F4">
-        <v>0.5</v>
-      </c>
-      <c r="G4">
-        <v>0.1238755</v>
-      </c>
-      <c r="H4">
-        <v>0.247751</v>
-      </c>
-      <c r="I4">
-        <v>1</v>
-      </c>
-      <c r="J4">
-        <v>1</v>
-      </c>
-      <c r="K4">
-        <v>2</v>
-      </c>
-      <c r="L4">
-        <v>1</v>
-      </c>
-      <c r="M4">
-        <v>0.392945</v>
-      </c>
-      <c r="N4">
-        <v>0.7858900000000001</v>
-      </c>
-      <c r="O4">
-        <v>0.6683689119029975</v>
-      </c>
-      <c r="P4">
-        <v>0.6279218231777132</v>
-      </c>
-      <c r="Q4">
-        <v>0.04867625834750001</v>
-      </c>
-      <c r="R4">
-        <v>0.19470503339</v>
-      </c>
-      <c r="S4">
-        <v>0.6683689119029975</v>
-      </c>
-      <c r="T4">
-        <v>0.6279218231777132</v>
-      </c>
-    </row>
-    <row r="5" spans="1:20">
-      <c r="A5" t="s">
-        <v>20</v>
-      </c>
-      <c r="B5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C5" t="s">
-        <v>22</v>
-      </c>
-      <c r="D5" t="s">
-        <v>25</v>
-      </c>
-      <c r="E5">
-        <v>1</v>
-      </c>
-      <c r="F5">
-        <v>0.5</v>
-      </c>
-      <c r="G5">
-        <v>0.1238755</v>
-      </c>
-      <c r="H5">
-        <v>0.247751</v>
-      </c>
-      <c r="I5">
-        <v>1</v>
-      </c>
-      <c r="J5">
-        <v>1</v>
-      </c>
-      <c r="K5">
-        <v>3</v>
-      </c>
-      <c r="L5">
-        <v>1</v>
-      </c>
-      <c r="M5">
-        <v>0.04452266666666666</v>
-      </c>
-      <c r="N5">
-        <v>0.133568</v>
-      </c>
-      <c r="O5">
-        <v>0.0757295964448456</v>
-      </c>
-      <c r="P5">
-        <v>0.1067201034218539</v>
-      </c>
-      <c r="Q5">
-        <v>0.005515267594666667</v>
-      </c>
-      <c r="R5">
-        <v>0.033091605568</v>
-      </c>
-      <c r="S5">
-        <v>0.0757295964448456</v>
-      </c>
-      <c r="T5">
-        <v>0.1067201034218539</v>
+        <v>0.7917734817071137</v>
       </c>
     </row>
   </sheetData>
